--- a/biology/Zoologie/Amphipyrinae/Amphipyrinae.xlsx
+++ b/biology/Zoologie/Amphipyrinae/Amphipyrinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Amphipyrinae constituent une sous-famille de lépidoptères (papillons) de la famille des Noctuidae.
 </t>
@@ -511,15 +523,17 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des tribus
-Selon ITIS      (17 mars 2019)[1] :
+Selon ITIS      (17 mars 2019) :
 Amphipyrini
 Psaphidini
 Stiriini
 Liste de genres
-Selon BioLib                    (24 février 2023)[2] :
+Selon BioLib                    (24 février 2023) :
 Abromias Billberg, 1820
 Achatis Billberg, 1820
 Acherdoa Walker, 1865
@@ -541,8 +555,8 @@
 Pyrois Hübner, 1820
 Sphragifera Staudinger, 1892
 Stauropides Hampson, 1909
-Selon Fauna Europaea, la sous-famille contient la tribu Psaphidini et les genres Amphipyra, Bryonycta et Phidrimana[3].
-Selon funet, la sous-famille contient les genres Amphipyra, Callyna, Clethrorasa et Phidrimana[4].
+Selon Fauna Europaea, la sous-famille contient la tribu Psaphidini et les genres Amphipyra, Bryonycta et Phidrimana.
+Selon funet, la sous-famille contient les genres Amphipyra, Callyna, Clethrorasa et Phidrimana.
 </t>
         </is>
       </c>
